--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resaj\Dropbox\Freelance\LNRC\Robot de carreras educativo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resaj\GitHub\cyclops-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Unidades</t>
   </si>
@@ -207,7 +207,10 @@
     <t>Tornillo M2x8mm para apoyos</t>
   </si>
   <si>
-    <t>Cable hembra-hembra 10cm</t>
+    <t>Tira de conectores macho</t>
+  </si>
+  <si>
+    <t>5x Cable hembra-hembra 10cm</t>
   </si>
 </sst>
 </file>
@@ -766,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -847,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <f>3.35*G59</f>
+        <f>3.35*G60</f>
         <v>2.8591580000000003</v>
       </c>
       <c r="D4" s="8">
@@ -994,7 +997,7 @@
         <v>0.11499999999999999</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" ref="D12:D32" si="4">B12*C12</f>
+        <f t="shared" ref="D12:D33" si="4">B12*C12</f>
         <v>0.11499999999999999</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1084,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7">
-        <f>2.81*G59/10</f>
+        <f>2.81*G60/10</f>
         <v>0.23982787999999999</v>
       </c>
       <c r="D17" s="8">
@@ -1097,94 +1100,94 @@
     </row>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <f>0.95/10</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B19" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <f>1.79/10</f>
         <v>0.17899999999999999</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <f t="shared" si="4"/>
         <v>0.35799999999999998</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <f>0.99*G59/5</f>
-        <v>0.16898904000000001</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" si="4"/>
-        <v>0.16898904000000001</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <f>0.99*G60/5</f>
+        <v>0.16898904000000001</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="4"/>
+        <v>0.16898904000000001</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
         <f>2.32/10</f>
         <v>0.23199999999999998</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <f t="shared" si="4"/>
         <v>0.23199999999999998</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="6">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <f>0.99*G59/100</f>
-        <v>8.4494520000000014E-3</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="4"/>
-        <v>2.5348356000000002E-2</v>
-      </c>
       <c r="E21" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="7">
-        <f>1.49/20</f>
-        <v>7.4499999999999997E-2</v>
+        <f>0.99*G60/100</f>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="4"/>
-        <v>0.14899999999999999</v>
+        <v>2.5348356000000002E-2</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>17</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="6">
         <v>2</v>
@@ -1211,10 +1214,10 @@
     </row>
     <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7">
         <f>1.49/20</f>
@@ -1222,7 +1225,7 @@
       </c>
       <c r="D24" s="8">
         <f t="shared" si="4"/>
-        <v>0.44699999999999995</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>17</v>
@@ -1230,18 +1233,18 @@
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25" s="7">
-        <f>0.99*G59/100</f>
-        <v>8.4494520000000014E-3</v>
+        <f>1.49/20</f>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="4"/>
-        <v>8.4494520000000014E-3</v>
+        <v>0.44699999999999995</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>17</v>
@@ -1249,13 +1252,13 @@
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <f>0.99*G59/100</f>
+        <f>0.99*G60/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D26" s="8">
@@ -1268,13 +1271,13 @@
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
       </c>
       <c r="C27" s="7">
-        <f>0.99*G59/100</f>
+        <f>0.99*G60/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D27" s="8">
@@ -1287,18 +1290,18 @@
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
       </c>
       <c r="C28" s="7">
-        <f>0.99*G59</f>
-        <v>0.84494520000000006</v>
+        <f>0.99*G60/100</f>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" si="4"/>
-        <v>0.84494520000000006</v>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>17</v>
@@ -1306,51 +1309,51 @@
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
       </c>
       <c r="C29" s="7">
-        <f>1.13/10*G59</f>
-        <v>9.644324E-2</v>
+        <f>0.99*G60</f>
+        <v>0.84494520000000006</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="4"/>
-        <v>9.644324E-2</v>
+        <v>0.84494520000000006</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <f>0.84*G59/100</f>
-        <v>7.1692320000000002E-3</v>
+        <f>1.13/10*G60</f>
+        <v>9.644324E-2</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" si="4"/>
-        <v>7.1692320000000002E-3</v>
+        <v>9.644324E-2</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="7">
-        <f>0.84*G59/100</f>
+        <f>0.84*G60/100</f>
         <v>7.1692320000000002E-3</v>
       </c>
       <c r="D31" s="8">
@@ -1363,90 +1366,98 @@
     </row>
     <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <f>0.84*G60/100</f>
+        <v>7.1692320000000002E-3</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="4"/>
+        <v>7.1692320000000002E-3</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B33" s="6">
         <v>2</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C33" s="7">
         <f>0.92/50</f>
         <v>1.84E-2</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <f t="shared" si="4"/>
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="A34" s="17"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7">
-        <f>3.49*G59</f>
-        <v>2.9786452000000003</v>
-      </c>
-      <c r="D35" s="8">
-        <f>B35*C35</f>
-        <v>2.9786452000000003</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A35" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="7">
-        <v>4.42</v>
+        <f>3.49*G60</f>
+        <v>2.9786452000000003</v>
       </c>
       <c r="D36" s="8">
         <f>B36*C36</f>
-        <v>8.84</v>
+        <v>2.9786452000000003</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>34</v>
+      <c r="A37" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="D37" s="8">
+        <f>B37*C37</f>
+        <v>8.84</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
@@ -1456,304 +1467,320 @@
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B40" s="6">
         <v>6</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C40" s="7">
         <f>1.38/50</f>
         <v>2.76E-2</v>
       </c>
-      <c r="D39" s="8">
-        <f t="shared" ref="D39:D40" si="5">B39*C39</f>
+      <c r="D40" s="8">
+        <f t="shared" ref="D40:D41" si="5">B40*C40</f>
         <v>0.1656</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="E40" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C41" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <f t="shared" si="5"/>
         <v>5.5320000000000008E-2</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="A42" s="17"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="6">
-        <v>1</v>
-      </c>
-      <c r="C43" s="7">
-        <f>3.34*G59</f>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7">
+        <f>3.34*G60</f>
         <v>2.8506231999999998</v>
       </c>
-      <c r="D43" s="8">
-        <f t="shared" ref="D43:D46" si="6">B43*C43</f>
+      <c r="D44" s="8">
+        <f t="shared" ref="D44:D47" si="6">B44*C44</f>
         <v>2.8506231999999998</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-    </row>
     <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="A45" s="17"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7">
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7">
         <v>12.66</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <f t="shared" si="6"/>
         <v>12.66</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="E47" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B48" s="6">
         <v>2</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C48" s="7">
         <f>1.09/50</f>
         <v>2.18E-2</v>
       </c>
-      <c r="D47" s="8">
-        <f>B47*C47</f>
+      <c r="D48" s="8">
+        <f>B48*C48</f>
         <v>4.36E-2</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="E48" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B49" s="6">
         <v>2</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C49" s="7">
         <f>1.19/100</f>
         <v>1.1899999999999999E-2</v>
       </c>
-      <c r="D48" s="8">
-        <f>B48*C48</f>
+      <c r="D49" s="8">
+        <f>B49*C49</f>
         <v>2.3799999999999998E-2</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="E49" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B50" s="6">
         <v>4</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C50" s="7">
         <f>1.38/50</f>
         <v>2.76E-2</v>
       </c>
-      <c r="D49" s="8">
-        <f t="shared" ref="D49:D51" si="7">B49*C49</f>
+      <c r="D50" s="8">
+        <f t="shared" ref="D50:D52" si="7">B50*C50</f>
         <v>0.1104</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="E50" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B51" s="6">
         <v>4</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C51" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <f t="shared" si="7"/>
         <v>3.6880000000000003E-2</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="6">
-        <v>5</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8">
+      <c r="E51" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="7">
+        <f>0.99/8</f>
+        <v>0.12375</v>
+      </c>
+      <c r="D52" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+        <v>0.12375</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="6">
-        <v>1</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="6">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="6">
-        <v>1</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="D55" s="8">
-        <f>B55*C55</f>
-        <v>0.79</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B56" s="6">
         <v>1</v>
       </c>
       <c r="C56" s="7">
-        <v>9.76</v>
+        <v>0.79</v>
       </c>
       <c r="D56" s="8">
         <f>B56*C56</f>
+        <v>0.79</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
         <v>9.76</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23"/>
+      <c r="D57" s="8">
+        <f>B57*C57</f>
+        <v>9.76</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="10"/>
-      <c r="C58" s="12" t="s">
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="10"/>
+      <c r="C59" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="14">
-        <f>SUM(D2:D56)</f>
-        <v>85.815115426909117</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="D59" s="14">
+        <f>SUM(D2:D57)</f>
+        <v>86.033865426909117</v>
+      </c>
+      <c r="G59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="12" t="s">
+    <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <f>13/1.1</f>
         <v>11.818181818181817</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <v>0.85348000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="13" t="s">
+    <row r="61" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="16">
-        <f>D58+D59</f>
-        <v>97.63329724509093</v>
+      <c r="D61" s="16">
+        <f>D59+D60</f>
+        <v>97.85204724509093</v>
       </c>
     </row>
   </sheetData>
@@ -1762,47 +1789,49 @@
     <hyperlink ref="E2" r:id="rId2"/>
     <hyperlink ref="E3" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E56" r:id="rId5"/>
-    <hyperlink ref="E46" r:id="rId6"/>
-    <hyperlink ref="E36" r:id="rId7"/>
+    <hyperlink ref="E57" r:id="rId5"/>
+    <hyperlink ref="E47" r:id="rId6"/>
+    <hyperlink ref="E37" r:id="rId7"/>
     <hyperlink ref="E13" r:id="rId8"/>
     <hyperlink ref="E15" r:id="rId9"/>
     <hyperlink ref="E16" r:id="rId10"/>
-    <hyperlink ref="E29" r:id="rId11"/>
-    <hyperlink ref="E28" r:id="rId12"/>
-    <hyperlink ref="E32" r:id="rId13"/>
+    <hyperlink ref="E30" r:id="rId11"/>
+    <hyperlink ref="E29" r:id="rId12"/>
+    <hyperlink ref="E33" r:id="rId13"/>
     <hyperlink ref="E14" r:id="rId14"/>
-    <hyperlink ref="E43" r:id="rId15" display="Aliexpress"/>
-    <hyperlink ref="E35" r:id="rId16"/>
+    <hyperlink ref="E44" r:id="rId15" display="Aliexpress"/>
+    <hyperlink ref="E36" r:id="rId16"/>
     <hyperlink ref="E6" r:id="rId17"/>
-    <hyperlink ref="E55" r:id="rId18"/>
-    <hyperlink ref="E30" r:id="rId19"/>
-    <hyperlink ref="E31" r:id="rId20"/>
-    <hyperlink ref="E23" r:id="rId21"/>
-    <hyperlink ref="E24" r:id="rId22"/>
-    <hyperlink ref="E22" r:id="rId23"/>
-    <hyperlink ref="E21" r:id="rId24"/>
+    <hyperlink ref="E56" r:id="rId18"/>
+    <hyperlink ref="E31" r:id="rId19"/>
+    <hyperlink ref="E32" r:id="rId20"/>
+    <hyperlink ref="E24" r:id="rId21"/>
+    <hyperlink ref="E25" r:id="rId22"/>
+    <hyperlink ref="E23" r:id="rId23"/>
+    <hyperlink ref="E22" r:id="rId24"/>
     <hyperlink ref="E17" r:id="rId25"/>
     <hyperlink ref="E12" r:id="rId26"/>
-    <hyperlink ref="E25" r:id="rId27"/>
-    <hyperlink ref="E26" r:id="rId28"/>
-    <hyperlink ref="E27" r:id="rId29"/>
-    <hyperlink ref="E18" r:id="rId30"/>
-    <hyperlink ref="E20" r:id="rId31"/>
-    <hyperlink ref="E47" r:id="rId32"/>
-    <hyperlink ref="E48" r:id="rId33"/>
-    <hyperlink ref="E40" r:id="rId34"/>
-    <hyperlink ref="E50" r:id="rId35"/>
+    <hyperlink ref="E26" r:id="rId27"/>
+    <hyperlink ref="E27" r:id="rId28"/>
+    <hyperlink ref="E28" r:id="rId29"/>
+    <hyperlink ref="E19" r:id="rId30"/>
+    <hyperlink ref="E21" r:id="rId31"/>
+    <hyperlink ref="E48" r:id="rId32"/>
+    <hyperlink ref="E49" r:id="rId33"/>
+    <hyperlink ref="E41" r:id="rId34"/>
+    <hyperlink ref="E51" r:id="rId35"/>
     <hyperlink ref="E11" r:id="rId36"/>
     <hyperlink ref="E9" r:id="rId37"/>
     <hyperlink ref="E8" r:id="rId38"/>
-    <hyperlink ref="E39" r:id="rId39"/>
-    <hyperlink ref="E49" r:id="rId40"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E50" r:id="rId40"/>
     <hyperlink ref="E10" r:id="rId41"/>
-    <hyperlink ref="E19" r:id="rId42"/>
+    <hyperlink ref="E20" r:id="rId42"/>
+    <hyperlink ref="E18" r:id="rId43"/>
+    <hyperlink ref="E52" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId43"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId45"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="C10" formula="1"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -993,15 +993,15 @@
         <v>1</v>
       </c>
       <c r="C12" s="7">
-        <f>2.3/20</f>
-        <v>0.11499999999999999</v>
+        <f>0.99*G60/10</f>
+        <v>8.4494520000000004E-2</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ref="D12:D33" si="4">B12*C12</f>
-        <v>0.11499999999999999</v>
+        <v>8.4494520000000004E-2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D59" s="14">
         <f>SUM(D2:D57)</f>
-        <v>86.033865426909117</v>
+        <v>86.003359946909114</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D61" s="16">
         <f>D59+D60</f>
-        <v>97.85204724509093</v>
+        <v>97.821541765090927</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -93,9 +93,6 @@
     <t>Tira de conectores hembra acodados</t>
   </si>
   <si>
-    <t>Resistencia 1k</t>
-  </si>
-  <si>
     <t>Resistencia 10k</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Resisitencia 120k</t>
   </si>
   <si>
-    <t>Resistencia 82Ohm</t>
-  </si>
-  <si>
     <t>Resistencia 47k</t>
   </si>
   <si>
@@ -211,6 +205,12 @@
   </si>
   <si>
     <t>5x Cable hembra-hembra 10cm</t>
+  </si>
+  <si>
+    <t>Resistencia 220 Ohm</t>
+  </si>
+  <si>
+    <t>Resistencia 82 Ohm</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="6">
         <v>6</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6">
         <v>2</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6">
         <v>4</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6">
         <v>3</v>
@@ -1195,18 +1195,18 @@
     </row>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B23" s="6">
         <v>2</v>
       </c>
       <c r="C23" s="7">
-        <f>1.49/20</f>
-        <v>7.4499999999999997E-2</v>
+        <f>0.99*G60/100</f>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="4"/>
-        <v>0.14899999999999999</v>
+        <v>1.6898904000000003E-2</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>17</v>
@@ -1214,18 +1214,18 @@
     </row>
     <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="7">
-        <f>1.49/20</f>
-        <v>7.4499999999999997E-2</v>
+        <f>0.99*G60/100</f>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="4"/>
-        <v>0.14899999999999999</v>
+        <v>1.6898904000000003E-2</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>17</v>
@@ -1233,18 +1233,18 @@
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="6">
         <v>6</v>
       </c>
       <c r="C25" s="7">
-        <f>1.49/20</f>
-        <v>7.4499999999999997E-2</v>
+        <f>0.99*G60/100</f>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="4"/>
-        <v>0.44699999999999995</v>
+        <v>5.0696712000000005E-2</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>17</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="6">
         <v>2</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="6">
         <v>2</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" s="6">
         <v>6</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="6">
         <v>6</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48" s="6">
         <v>2</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6">
         <v>2</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" s="6">
         <v>4</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="6">
         <v>4</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" s="6">
         <v>1</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B53" s="6">
         <v>1</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -1754,17 +1754,17 @@
       </c>
       <c r="D59" s="14">
         <f>SUM(D2:D57)</f>
-        <v>86.003359946909114</v>
+        <v>85.342854466909102</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D60" s="15">
         <f>13/1.1</f>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D61" s="16">
         <f>D59+D60</f>
-        <v>97.821541765090927</v>
+        <v>97.161036285090915</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>Unidades</t>
   </si>
@@ -135,12 +135,6 @@
     <t>EXTRAS NECESARIOS</t>
   </si>
   <si>
-    <t>COMUNICACIÓN INALÁMBRICA</t>
-  </si>
-  <si>
-    <t>CÁMARA</t>
-  </si>
-  <si>
     <t>EXTRAS PARA CARRERAS</t>
   </si>
   <si>
@@ -211,6 +205,18 @@
   </si>
   <si>
     <t>Resistencia 82 Ohm</t>
+  </si>
+  <si>
+    <t>KIT BÁSICO DE VELOCISTA</t>
+  </si>
+  <si>
+    <t>EXTRA COMUNICACIÓN INALÁMBRICA</t>
+  </si>
+  <si>
+    <t>EXTRA CÁMARA</t>
+  </si>
+  <si>
+    <t>Complubot</t>
   </si>
 </sst>
 </file>
@@ -769,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -805,27 +811,17 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <f>5/1.1</f>
-        <v>4.545454545454545</v>
-      </c>
-      <c r="D2" s="8">
-        <f>B2*C2</f>
-        <v>4.545454545454545</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -844,218 +840,219 @@
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <f>3.35*G60</f>
-        <v>2.8591580000000003</v>
+        <f>5/1.1</f>
+        <v>4.545454545454545</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4" si="0">B4*C4</f>
-        <v>2.8591580000000003</v>
+        <f>B4*C4</f>
+        <v>4.545454545454545</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>11.7</v>
+        <f>3.35*G61</f>
+        <v>2.8591580000000003</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5" si="1">B5*C5</f>
-        <v>23.4</v>
+        <f t="shared" ref="D5" si="0">B5*C5</f>
+        <v>2.8591580000000003</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6" si="1">B6*C6</f>
+        <v>23.4</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2.89</v>
-      </c>
-      <c r="D6" s="8">
-        <f>B6*C6</f>
-        <v>2.89</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6.03</v>
+      </c>
+      <c r="D7" s="8">
+        <f>B7*C7</f>
+        <v>6.03</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <f>1.38/50</f>
         <v>2.76E-2</v>
       </c>
-      <c r="D8" s="8">
-        <f t="shared" ref="D8:D9" si="2">B8*C8</f>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D10" si="2">B9*C9</f>
         <v>0.1656</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <f t="shared" si="2"/>
         <v>5.5320000000000008E-2</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <f>1.04/100</f>
         <v>1.04E-2</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" ref="D10:D11" si="3">B10*C10</f>
+      <c r="D11" s="8">
+        <f t="shared" ref="D11:D12" si="3">B11*C11</f>
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <f t="shared" si="3"/>
         <v>3.6880000000000003E-2</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <f>0.99*G60/10</f>
-        <v>8.4494520000000004E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" ref="D12:D33" si="4">B12*C12</f>
-        <v>8.4494520000000004E-2</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <f>0.99*G61/10</f>
+        <v>8.4494520000000004E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:D34" si="4">B13*C13</f>
+        <v>8.4494520000000004E-2</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
         <f>2.52/50</f>
         <v>5.04E-2</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <f t="shared" si="4"/>
         <v>5.04E-2</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.21</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="4"/>
-        <v>1.21</v>
-      </c>
       <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>2.13</v>
+        <v>1.21</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="4"/>
-        <v>2.13</v>
+        <v>1.21</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>18</v>
@@ -1063,17 +1060,17 @@
     </row>
     <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
       </c>
       <c r="C16" s="7">
-        <v>1.49</v>
+        <v>2.13</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="4"/>
-        <v>1.49</v>
+        <v>2.13</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>18</v>
@@ -1081,132 +1078,131 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17" s="7">
-        <f>2.81*G60/10</f>
-        <v>0.23982787999999999</v>
+        <v>1.49</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="4"/>
-        <v>1.43896728</v>
+        <v>1.49</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" s="7">
+        <f>2.81*G61/10</f>
+        <v>0.23982787999999999</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="4"/>
+        <v>1.43896728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
         <f>0.95/10</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <f t="shared" si="4"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="E19" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B20" s="6">
         <v>2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="7">
         <f>1.79/10</f>
         <v>0.17899999999999999</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <f t="shared" si="4"/>
         <v>0.35799999999999998</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <f>0.99*G60/5</f>
-        <v>0.16898904000000001</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="4"/>
-        <v>0.16898904000000001</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <f>0.99*G61/5</f>
+        <v>0.16898904000000001</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="4"/>
+        <v>0.16898904000000001</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
         <f>2.32/10</f>
         <v>0.23199999999999998</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <f t="shared" si="4"/>
         <v>0.23199999999999998</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7">
-        <f>0.99*G60/100</f>
-        <v>8.4494520000000014E-3</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="4"/>
-        <v>2.5348356000000002E-2</v>
-      </c>
       <c r="E22" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="7">
-        <f>0.99*G60/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="4"/>
-        <v>1.6898904000000003E-2</v>
+        <v>2.5348356000000002E-2</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>17</v>
@@ -1214,13 +1210,13 @@
     </row>
     <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="7">
-        <f>0.99*G60/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D24" s="8">
@@ -1233,18 +1229,18 @@
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7">
-        <f>0.99*G60/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="4"/>
-        <v>5.0696712000000005E-2</v>
+        <v>1.6898904000000003E-2</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>17</v>
@@ -1252,18 +1248,18 @@
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C26" s="7">
-        <f>0.99*G60/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" si="4"/>
-        <v>8.4494520000000014E-3</v>
+        <v>5.0696712000000005E-2</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>17</v>
@@ -1271,13 +1267,13 @@
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
       </c>
       <c r="C27" s="7">
-        <f>0.99*G60/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D27" s="8">
@@ -1290,13 +1286,13 @@
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
       </c>
       <c r="C28" s="7">
-        <f>0.99*G60/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D28" s="8">
@@ -1309,18 +1305,18 @@
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
       </c>
       <c r="C29" s="7">
-        <f>0.99*G60</f>
-        <v>0.84494520000000006</v>
+        <f>0.99*G61/100</f>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="4"/>
-        <v>0.84494520000000006</v>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>17</v>
@@ -1328,51 +1324,51 @@
     </row>
     <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <f>1.13/10*G60</f>
-        <v>9.644324E-2</v>
+        <f>0.99*G61</f>
+        <v>0.84494520000000006</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" si="4"/>
-        <v>9.644324E-2</v>
+        <v>0.84494520000000006</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="7">
-        <f>0.84*G60/100</f>
-        <v>7.1692320000000002E-3</v>
+        <f>1.13/10*G61</f>
+        <v>9.644324E-2</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="4"/>
-        <v>7.1692320000000002E-3</v>
+        <v>9.644324E-2</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
       </c>
       <c r="C32" s="7">
-        <f>0.84*G60/100</f>
+        <f>0.84*G61/100</f>
         <v>7.1692320000000002E-3</v>
       </c>
       <c r="D32" s="8">
@@ -1385,90 +1381,98 @@
     </row>
     <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <f>0.84*G61/100</f>
+        <v>7.1692320000000002E-3</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="4"/>
+        <v>7.1692320000000002E-3</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B34" s="6">
         <v>2</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C34" s="7">
         <f>0.92/50</f>
         <v>1.84E-2</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <f t="shared" si="4"/>
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="A35" s="17"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7">
-        <f>3.49*G60</f>
-        <v>2.9786452000000003</v>
-      </c>
-      <c r="D36" s="8">
-        <f>B36*C36</f>
-        <v>2.9786452000000003</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A36" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="7">
-        <v>4.42</v>
+        <f>3.49*G61</f>
+        <v>2.9786452000000003</v>
       </c>
       <c r="D37" s="8">
         <f>B37*C37</f>
-        <v>8.84</v>
+        <v>2.9786452000000003</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>32</v>
+      <c r="A38" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B38" s="6">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="D38" s="8">
+        <f>B38*C38</f>
+        <v>8.84</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
@@ -1478,363 +1482,374 @@
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>55</v>
+      <c r="A40" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C41" s="7">
         <f>1.38/50</f>
         <v>2.76E-2</v>
       </c>
-      <c r="D40" s="8">
-        <f t="shared" ref="D40:D41" si="5">B40*C40</f>
+      <c r="D41" s="8">
+        <f t="shared" ref="D41:D42" si="5">B41*C41</f>
         <v>0.1656</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="6">
+      <c r="E41" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C42" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <f t="shared" si="5"/>
         <v>5.5320000000000008E-2</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="A43" s="17"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="6">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7">
-        <f>3.34*G60</f>
+      <c r="A44" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7">
+        <f>3.34*G61</f>
         <v>2.8506231999999998</v>
       </c>
-      <c r="D44" s="8">
-        <f t="shared" ref="D44:D47" si="6">B44*C44</f>
+      <c r="D45" s="8">
+        <f t="shared" ref="D45:D48" si="6">B45*C45</f>
         <v>2.8506231999999998</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-    </row>
     <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="A46" s="17"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="8"/>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="6">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7">
+      <c r="A47" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7">
         <v>12.66</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <f t="shared" si="6"/>
         <v>12.66</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="6">
+      <c r="E48" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="6">
         <v>2</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C49" s="7">
         <f>1.09/50</f>
         <v>2.18E-2</v>
       </c>
-      <c r="D48" s="8">
-        <f>B48*C48</f>
+      <c r="D49" s="8">
+        <f>B49*C49</f>
         <v>4.36E-2</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="6">
+      <c r="E49" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="6">
         <v>2</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C50" s="7">
         <f>1.19/100</f>
         <v>1.1899999999999999E-2</v>
       </c>
-      <c r="D49" s="8">
-        <f>B49*C49</f>
+      <c r="D50" s="8">
+        <f>B50*C50</f>
         <v>2.3799999999999998E-2</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="6">
+      <c r="E50" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="6">
         <v>4</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C51" s="7">
         <f>1.38/50</f>
         <v>2.76E-2</v>
       </c>
-      <c r="D50" s="8">
-        <f t="shared" ref="D50:D52" si="7">B50*C50</f>
+      <c r="D51" s="8">
+        <f t="shared" ref="D51:D53" si="7">B51*C51</f>
         <v>0.1104</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="6">
+      <c r="E51" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="6">
         <v>4</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C52" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <f t="shared" si="7"/>
         <v>3.6880000000000003E-2</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="6">
-        <v>1</v>
-      </c>
-      <c r="C52" s="7">
+      <c r="E52" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7">
         <f>0.99/8</f>
         <v>0.12375</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <f t="shared" si="7"/>
         <v>0.12375</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="E53" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="6">
-        <v>1</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="6">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="6">
-        <v>1</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="D56" s="8">
-        <f>B56*C56</f>
-        <v>0.79</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
       </c>
       <c r="C57" s="7">
-        <v>9.76</v>
+        <v>0.79</v>
       </c>
       <c r="D57" s="8">
         <f>B57*C57</f>
+        <v>0.79</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1</v>
+      </c>
+      <c r="C58" s="7">
         <v>9.76</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
+      <c r="D58" s="8">
+        <f>B58*C58</f>
+        <v>9.76</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="10"/>
-      <c r="C59" s="12" t="s">
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="10"/>
+      <c r="C60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="14">
-        <f>SUM(D2:D57)</f>
-        <v>85.342854466909102</v>
-      </c>
-      <c r="G59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="12" t="s">
+      <c r="D60" s="14">
+        <f>SUM(D3:D58)</f>
+        <v>88.482854466909089</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <f>13/1.1</f>
         <v>11.818181818181817</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>0.85348000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="13" t="s">
+    <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="16">
-        <f>D59+D60</f>
-        <v>97.161036285090915</v>
+      <c r="D62" s="16">
+        <f>D60+D61</f>
+        <v>100.3010362850909</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E57" r:id="rId5"/>
-    <hyperlink ref="E47" r:id="rId6"/>
-    <hyperlink ref="E37" r:id="rId7"/>
-    <hyperlink ref="E13" r:id="rId8"/>
-    <hyperlink ref="E15" r:id="rId9"/>
-    <hyperlink ref="E16" r:id="rId10"/>
-    <hyperlink ref="E30" r:id="rId11"/>
-    <hyperlink ref="E29" r:id="rId12"/>
-    <hyperlink ref="E33" r:id="rId13"/>
-    <hyperlink ref="E14" r:id="rId14"/>
-    <hyperlink ref="E44" r:id="rId15" display="Aliexpress"/>
-    <hyperlink ref="E36" r:id="rId16"/>
-    <hyperlink ref="E6" r:id="rId17"/>
-    <hyperlink ref="E56" r:id="rId18"/>
-    <hyperlink ref="E31" r:id="rId19"/>
-    <hyperlink ref="E32" r:id="rId20"/>
-    <hyperlink ref="E24" r:id="rId21"/>
-    <hyperlink ref="E25" r:id="rId22"/>
-    <hyperlink ref="E23" r:id="rId23"/>
-    <hyperlink ref="E22" r:id="rId24"/>
-    <hyperlink ref="E17" r:id="rId25"/>
-    <hyperlink ref="E12" r:id="rId26"/>
-    <hyperlink ref="E26" r:id="rId27"/>
-    <hyperlink ref="E27" r:id="rId28"/>
-    <hyperlink ref="E28" r:id="rId29"/>
-    <hyperlink ref="E19" r:id="rId30"/>
-    <hyperlink ref="E21" r:id="rId31"/>
-    <hyperlink ref="E48" r:id="rId32"/>
-    <hyperlink ref="E49" r:id="rId33"/>
-    <hyperlink ref="E41" r:id="rId34"/>
-    <hyperlink ref="E51" r:id="rId35"/>
-    <hyperlink ref="E11" r:id="rId36"/>
-    <hyperlink ref="E9" r:id="rId37"/>
-    <hyperlink ref="E8" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E50" r:id="rId40"/>
-    <hyperlink ref="E10" r:id="rId41"/>
-    <hyperlink ref="E20" r:id="rId42"/>
-    <hyperlink ref="E18" r:id="rId43"/>
-    <hyperlink ref="E52" r:id="rId44"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E58" r:id="rId5"/>
+    <hyperlink ref="E48" r:id="rId6"/>
+    <hyperlink ref="E38" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="E16" r:id="rId9"/>
+    <hyperlink ref="E17" r:id="rId10"/>
+    <hyperlink ref="E31" r:id="rId11"/>
+    <hyperlink ref="E30" r:id="rId12"/>
+    <hyperlink ref="E34" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E45" r:id="rId15" display="Aliexpress"/>
+    <hyperlink ref="E37" r:id="rId16"/>
+    <hyperlink ref="E7" r:id="rId17"/>
+    <hyperlink ref="E57" r:id="rId18"/>
+    <hyperlink ref="E32" r:id="rId19"/>
+    <hyperlink ref="E33" r:id="rId20"/>
+    <hyperlink ref="E25" r:id="rId21"/>
+    <hyperlink ref="E26" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E23" r:id="rId24"/>
+    <hyperlink ref="E18" r:id="rId25"/>
+    <hyperlink ref="E13" r:id="rId26"/>
+    <hyperlink ref="E27" r:id="rId27"/>
+    <hyperlink ref="E28" r:id="rId28"/>
+    <hyperlink ref="E29" r:id="rId29"/>
+    <hyperlink ref="E20" r:id="rId30"/>
+    <hyperlink ref="E22" r:id="rId31"/>
+    <hyperlink ref="E49" r:id="rId32"/>
+    <hyperlink ref="E50" r:id="rId33"/>
+    <hyperlink ref="E42" r:id="rId34"/>
+    <hyperlink ref="E52" r:id="rId35"/>
+    <hyperlink ref="E12" r:id="rId36"/>
+    <hyperlink ref="E10" r:id="rId37"/>
+    <hyperlink ref="E9" r:id="rId38"/>
+    <hyperlink ref="E41" r:id="rId39"/>
+    <hyperlink ref="E51" r:id="rId40"/>
+    <hyperlink ref="E11" r:id="rId41"/>
+    <hyperlink ref="E21" r:id="rId42"/>
+    <hyperlink ref="E19" r:id="rId43"/>
+    <hyperlink ref="E53" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId45"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C10" formula="1"/>
+    <ignoredError sqref="C11" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,15 +1159,15 @@
         <v>1</v>
       </c>
       <c r="C21" s="7">
-        <f>0.99*G61/5</f>
-        <v>0.16898904000000001</v>
+        <f>3.17/10</f>
+        <v>0.317</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="4"/>
-        <v>0.16898904000000001</v>
+        <v>0.317</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="D60" s="14">
         <f>SUM(D3:D58)</f>
-        <v>88.482854466909089</v>
+        <v>88.630865426909097</v>
       </c>
       <c r="G60" t="s">
         <v>40</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D62" s="16">
         <f>D60+D61</f>
-        <v>100.3010362850909</v>
+        <v>100.44904724509091</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Unidades</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Resistencia 82k</t>
   </si>
   <si>
-    <t>Resisitencia 120k</t>
-  </si>
-  <si>
     <t>Resistencia 47k</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t>Complubot</t>
+  </si>
+  <si>
+    <t>Resistencia 120k</t>
+  </si>
+  <si>
+    <t>Tira de conectores macho extendida</t>
   </si>
 </sst>
 </file>
@@ -775,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -812,7 +815,7 @@
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -865,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <f>3.35*G61</f>
+        <f>3.35*G62</f>
         <v>2.8591580000000003</v>
       </c>
       <c r="D5" s="8">
@@ -897,7 +900,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -910,12 +913,12 @@
         <v>6.03</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="6">
         <v>6</v>
@@ -945,7 +948,7 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="6">
         <v>6</v>
@@ -964,7 +967,7 @@
     </row>
     <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
@@ -983,7 +986,7 @@
     </row>
     <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="6">
         <v>4</v>
@@ -1008,11 +1011,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="7">
-        <f>0.99*G61/10</f>
+        <f>0.99*G62/10</f>
         <v>8.4494520000000004E-2</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" ref="D13:D34" si="4">B13*C13</f>
+        <f t="shared" ref="D13:D35" si="4">B13*C13</f>
         <v>8.4494520000000004E-2</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1102,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="7">
-        <f>2.81*G61/10</f>
+        <f>2.81*G62/10</f>
         <v>0.23982787999999999</v>
       </c>
       <c r="D18" s="8">
@@ -1115,7 +1118,7 @@
     </row>
     <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -1134,78 +1137,78 @@
     </row>
     <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <f>4.48/20</f>
+        <v>0.22400000000000003</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="4"/>
+        <v>0.22400000000000003</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="7">
         <f>1.79/10</f>
         <v>0.17899999999999999</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <f t="shared" si="4"/>
         <v>0.35799999999999998</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
         <f>3.17/10</f>
         <v>0.317</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <f t="shared" si="4"/>
         <v>0.317</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
         <f>2.32/10</f>
         <v>0.23199999999999998</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <f t="shared" si="4"/>
         <v>0.23199999999999998</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="6">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <f>0.99*G61/100</f>
-        <v>8.4494520000000014E-3</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="4"/>
-        <v>2.5348356000000002E-2</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1213,15 +1216,15 @@
         <v>60</v>
       </c>
       <c r="B24" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
-        <f>0.99*G61/100</f>
+        <f>0.99*G62/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="4"/>
-        <v>1.6898904000000003E-2</v>
+        <v>2.5348356000000002E-2</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>17</v>
@@ -1229,13 +1232,13 @@
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B25" s="6">
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <f>0.99*G61/100</f>
+        <f>0.99*G62/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D25" s="8">
@@ -1248,18 +1251,18 @@
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C26" s="7">
-        <f>0.99*G61/100</f>
+        <f>0.99*G62/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" si="4"/>
-        <v>5.0696712000000005E-2</v>
+        <v>1.6898904000000003E-2</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>17</v>
@@ -1267,18 +1270,18 @@
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C27" s="7">
-        <f>0.99*G61/100</f>
+        <f>0.99*G62/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="4"/>
-        <v>8.4494520000000014E-3</v>
+        <v>5.0696712000000005E-2</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>17</v>
@@ -1286,13 +1289,13 @@
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
       </c>
       <c r="C28" s="7">
-        <f>0.99*G61/100</f>
+        <f>0.99*G62/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D28" s="8">
@@ -1305,13 +1308,13 @@
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
       </c>
       <c r="C29" s="7">
-        <f>0.99*G61/100</f>
+        <f>0.99*G62/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D29" s="8">
@@ -1324,18 +1327,18 @@
     </row>
     <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <f>0.99*G61</f>
-        <v>0.84494520000000006</v>
+        <f>0.99*G62/100</f>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" si="4"/>
-        <v>0.84494520000000006</v>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>17</v>
@@ -1343,51 +1346,51 @@
     </row>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="7">
-        <f>1.13/10*G61</f>
-        <v>9.644324E-2</v>
+        <f>0.99*G62</f>
+        <v>0.84494520000000006</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="4"/>
-        <v>9.644324E-2</v>
+        <v>0.84494520000000006</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
       </c>
       <c r="C32" s="7">
-        <f>0.84*G61/100</f>
-        <v>7.1692320000000002E-3</v>
+        <f>1.13/10*G62</f>
+        <v>9.644324E-2</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" si="4"/>
-        <v>7.1692320000000002E-3</v>
+        <v>9.644324E-2</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
       </c>
       <c r="C33" s="7">
-        <f>0.84*G61/100</f>
+        <f>0.84*G62/100</f>
         <v>7.1692320000000002E-3</v>
       </c>
       <c r="D33" s="8">
@@ -1400,90 +1403,99 @@
     </row>
     <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B34" s="6">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7">
+        <f>0.96*G62/100</f>
+        <v>8.1934079999999992E-3</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="4"/>
+        <v>8.1934079999999992E-3</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="6">
         <v>2</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C35" s="7">
         <f>0.92/50</f>
         <v>1.84E-2</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <f t="shared" si="4"/>
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="A36" s="17"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7">
-        <f>3.49*G61</f>
-        <v>2.9786452000000003</v>
-      </c>
-      <c r="D37" s="8">
-        <f>B37*C37</f>
-        <v>2.9786452000000003</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A37" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="7">
-        <v>4.42</v>
+        <f>3.49*G62</f>
+        <v>2.9786452000000003</v>
       </c>
       <c r="D38" s="8">
         <f>B38*C38</f>
-        <v>8.84</v>
+        <v>2.9786452000000003</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>32</v>
+      <c r="A39" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B39" s="6">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C39" s="7">
+        <f>4.42*G62</f>
+        <v>3.7723816000000001</v>
+      </c>
+      <c r="D39" s="8">
+        <f>B39*C39</f>
+        <v>7.5447632000000002</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" s="6">
         <v>1</v>
@@ -1493,309 +1505,320 @@
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>53</v>
+      <c r="A41" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C42" s="7">
         <f>1.38/50</f>
         <v>2.76E-2</v>
       </c>
-      <c r="D41" s="8">
-        <f t="shared" ref="D41:D42" si="5">B41*C41</f>
+      <c r="D42" s="8">
+        <f t="shared" ref="D42:D43" si="5">B42*C42</f>
         <v>0.1656</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="E42" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6">
         <v>6</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C43" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <f t="shared" si="5"/>
         <v>5.5320000000000008E-2</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="A44" s="17"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="6">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7">
-        <f>3.34*G61</f>
+      <c r="A45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7">
+        <f>3.34*G62</f>
         <v>2.8506231999999998</v>
       </c>
-      <c r="D45" s="8">
-        <f t="shared" ref="D45:D48" si="6">B45*C45</f>
+      <c r="D46" s="8">
+        <f t="shared" ref="D46:D49" si="6">B46*C46</f>
         <v>2.8506231999999998</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-    </row>
     <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>64</v>
-      </c>
+      <c r="A47" s="17"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="6">
-        <v>1</v>
-      </c>
-      <c r="C48" s="7">
+      <c r="A48" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="7">
         <v>12.66</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D49" s="8">
         <f t="shared" si="6"/>
         <v>12.66</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="6">
+      <c r="E49" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="6">
         <v>2</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C50" s="7">
         <f>1.09/50</f>
         <v>2.18E-2</v>
       </c>
-      <c r="D49" s="8">
-        <f>B49*C49</f>
+      <c r="D50" s="8">
+        <f>B50*C50</f>
         <v>4.36E-2</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="6">
+      <c r="E50" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
         <v>2</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C51" s="7">
         <f>1.19/100</f>
         <v>1.1899999999999999E-2</v>
       </c>
-      <c r="D50" s="8">
-        <f>B50*C50</f>
+      <c r="D51" s="8">
+        <f>B51*C51</f>
         <v>2.3799999999999998E-2</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="6">
+      <c r="E51" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="6">
         <v>4</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C52" s="7">
         <f>1.38/50</f>
         <v>2.76E-2</v>
       </c>
-      <c r="D51" s="8">
-        <f t="shared" ref="D51:D53" si="7">B51*C51</f>
+      <c r="D52" s="8">
+        <f t="shared" ref="D52:D54" si="7">B52*C52</f>
         <v>0.1104</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="6">
+      <c r="E52" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6">
         <v>4</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C53" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <f t="shared" si="7"/>
         <v>3.6880000000000003E-2</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="6">
-        <v>1</v>
-      </c>
-      <c r="C53" s="7">
+      <c r="E53" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="6">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7">
         <f>0.99/8</f>
         <v>0.12375</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <f t="shared" si="7"/>
         <v>0.12375</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="6">
-        <v>1</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="6">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="6">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="D57" s="8">
-        <f>B57*C57</f>
-        <v>0.79</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A57" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B58" s="6">
         <v>1</v>
       </c>
       <c r="C58" s="7">
-        <v>9.76</v>
+        <v>0.79</v>
       </c>
       <c r="D58" s="8">
         <f>B58*C58</f>
+        <v>0.79</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7">
         <v>9.76</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="23"/>
+      <c r="D59" s="8">
+        <f>B59*C59</f>
+        <v>9.76</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="10"/>
-      <c r="C60" s="12" t="s">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="10"/>
+      <c r="C61" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="14">
-        <f>SUM(D3:D58)</f>
-        <v>88.630865426909097</v>
-      </c>
-      <c r="G60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
+        <f>SUM(D3:D59)</f>
+        <v>87.56065280290909</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="15">
         <f>13/1.1</f>
         <v>11.818181818181817</v>
       </c>
-      <c r="G61">
+      <c r="G62">
         <v>0.85348000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="13" t="s">
+    <row r="63" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="16">
-        <f>D60+D61</f>
-        <v>100.44904724509091</v>
+      <c r="D63" s="16">
+        <f>D61+D62</f>
+        <v>99.378834621090903</v>
       </c>
     </row>
   </sheetData>
@@ -1804,49 +1827,50 @@
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E58" r:id="rId5"/>
-    <hyperlink ref="E48" r:id="rId6"/>
-    <hyperlink ref="E38" r:id="rId7"/>
+    <hyperlink ref="E59" r:id="rId5"/>
+    <hyperlink ref="E49" r:id="rId6"/>
+    <hyperlink ref="E39" r:id="rId7"/>
     <hyperlink ref="E14" r:id="rId8"/>
     <hyperlink ref="E16" r:id="rId9"/>
     <hyperlink ref="E17" r:id="rId10"/>
-    <hyperlink ref="E31" r:id="rId11"/>
-    <hyperlink ref="E30" r:id="rId12"/>
-    <hyperlink ref="E34" r:id="rId13"/>
+    <hyperlink ref="E32" r:id="rId11"/>
+    <hyperlink ref="E31" r:id="rId12"/>
+    <hyperlink ref="E35" r:id="rId13"/>
     <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E45" r:id="rId15" display="Aliexpress"/>
-    <hyperlink ref="E37" r:id="rId16"/>
+    <hyperlink ref="E46" r:id="rId15" display="Aliexpress"/>
+    <hyperlink ref="E38" r:id="rId16"/>
     <hyperlink ref="E7" r:id="rId17"/>
-    <hyperlink ref="E57" r:id="rId18"/>
-    <hyperlink ref="E32" r:id="rId19"/>
-    <hyperlink ref="E33" r:id="rId20"/>
-    <hyperlink ref="E25" r:id="rId21"/>
-    <hyperlink ref="E26" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E23" r:id="rId24"/>
+    <hyperlink ref="E58" r:id="rId18"/>
+    <hyperlink ref="E33" r:id="rId19"/>
+    <hyperlink ref="E34" r:id="rId20"/>
+    <hyperlink ref="E26" r:id="rId21"/>
+    <hyperlink ref="E27" r:id="rId22"/>
+    <hyperlink ref="E25" r:id="rId23"/>
+    <hyperlink ref="E24" r:id="rId24"/>
     <hyperlink ref="E18" r:id="rId25"/>
     <hyperlink ref="E13" r:id="rId26"/>
-    <hyperlink ref="E27" r:id="rId27"/>
-    <hyperlink ref="E28" r:id="rId28"/>
-    <hyperlink ref="E29" r:id="rId29"/>
-    <hyperlink ref="E20" r:id="rId30"/>
-    <hyperlink ref="E22" r:id="rId31"/>
-    <hyperlink ref="E49" r:id="rId32"/>
-    <hyperlink ref="E50" r:id="rId33"/>
-    <hyperlink ref="E42" r:id="rId34"/>
-    <hyperlink ref="E52" r:id="rId35"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E21" r:id="rId30"/>
+    <hyperlink ref="E23" r:id="rId31"/>
+    <hyperlink ref="E50" r:id="rId32"/>
+    <hyperlink ref="E51" r:id="rId33"/>
+    <hyperlink ref="E43" r:id="rId34"/>
+    <hyperlink ref="E53" r:id="rId35"/>
     <hyperlink ref="E12" r:id="rId36"/>
     <hyperlink ref="E10" r:id="rId37"/>
     <hyperlink ref="E9" r:id="rId38"/>
-    <hyperlink ref="E41" r:id="rId39"/>
-    <hyperlink ref="E51" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId39"/>
+    <hyperlink ref="E52" r:id="rId40"/>
     <hyperlink ref="E11" r:id="rId41"/>
-    <hyperlink ref="E21" r:id="rId42"/>
+    <hyperlink ref="E22" r:id="rId42"/>
     <hyperlink ref="E19" r:id="rId43"/>
-    <hyperlink ref="E53" r:id="rId44"/>
+    <hyperlink ref="E54" r:id="rId44"/>
+    <hyperlink ref="E20" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId45"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId46"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="C11" formula="1"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1768,11 +1768,11 @@
         <v>1</v>
       </c>
       <c r="C59" s="7">
-        <v>9.76</v>
+        <v>6.15</v>
       </c>
       <c r="D59" s="8">
         <f>B59*C59</f>
-        <v>9.76</v>
+        <v>6.15</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>18</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="D61" s="14">
         <f>SUM(D3:D59)</f>
-        <v>87.56065280290909</v>
+        <v>83.95065280290909</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="D63" s="16">
         <f>D61+D62</f>
-        <v>99.378834621090903</v>
+        <v>95.768834621090903</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -213,13 +213,13 @@
     <t>EXTRA CÁMARA</t>
   </si>
   <si>
-    <t>Complubot</t>
-  </si>
-  <si>
     <t>Resistencia 120k</t>
   </si>
   <si>
     <t>Tira de conectores macho extendida</t>
+  </si>
+  <si>
+    <t>TME</t>
   </si>
 </sst>
 </file>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -906,14 +906,15 @@
         <v>1</v>
       </c>
       <c r="C7" s="7">
-        <v>6.03</v>
+        <f>3.93*B7+7.9</f>
+        <v>11.83</v>
       </c>
       <c r="D7" s="8">
         <f>B7*C7</f>
-        <v>6.03</v>
+        <v>11.83</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1137,7 +1138,7 @@
     </row>
     <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -1308,7 +1309,7 @@
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -1792,7 +1793,7 @@
       </c>
       <c r="D61" s="14">
         <f>SUM(D3:D59)</f>
-        <v>83.95065280290909</v>
+        <v>89.750652802909087</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -1818,7 +1819,7 @@
       </c>
       <c r="D63" s="16">
         <f>D61+D62</f>
-        <v>95.768834621090903</v>
+        <v>101.5688346210909</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>Unidades</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Resistencia 82k</t>
-  </si>
-  <si>
-    <t>Resistencia 47k</t>
   </si>
   <si>
     <t>Pulsador</t>
@@ -778,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -815,7 +812,7 @@
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -868,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <f>3.35*G62</f>
+        <f>3.35*G61</f>
         <v>2.8591580000000003</v>
       </c>
       <c r="D5" s="8">
@@ -900,7 +897,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -914,12 +911,12 @@
         <v>11.83</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -930,7 +927,7 @@
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6">
         <v>6</v>
@@ -949,7 +946,7 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6">
         <v>6</v>
@@ -968,7 +965,7 @@
     </row>
     <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
@@ -987,7 +984,7 @@
     </row>
     <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6">
         <v>4</v>
@@ -1012,11 +1009,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="7">
-        <f>0.99*G62/10</f>
+        <f>0.99*G61/10</f>
         <v>8.4494520000000004E-2</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" ref="D13:D35" si="4">B13*C13</f>
+        <f t="shared" ref="D13:D34" si="4">B13*C13</f>
         <v>8.4494520000000004E-2</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1106,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="7">
-        <f>2.81*G62/10</f>
+        <f>2.81*G61/10</f>
         <v>0.23982787999999999</v>
       </c>
       <c r="D18" s="8">
@@ -1119,7 +1116,7 @@
     </row>
     <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -1138,7 +1135,7 @@
     </row>
     <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -1214,13 +1211,13 @@
     </row>
     <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6">
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <f>0.99*G62/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D24" s="8">
@@ -1233,13 +1230,13 @@
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="6">
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <f>0.99*G62/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D25" s="8">
@@ -1255,15 +1252,15 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C26" s="7">
-        <f>0.99*G62/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" si="4"/>
-        <v>1.6898904000000003E-2</v>
+        <v>6.7595616000000011E-2</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>17</v>
@@ -1271,18 +1268,18 @@
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C27" s="7">
-        <f>0.99*G62/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="4"/>
-        <v>5.0696712000000005E-2</v>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>17</v>
@@ -1290,13 +1287,13 @@
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
       </c>
       <c r="C28" s="7">
-        <f>0.99*G62/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D28" s="8">
@@ -1309,13 +1306,13 @@
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
       </c>
       <c r="C29" s="7">
-        <f>0.99*G62/100</f>
+        <f>0.99*G61/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D29" s="8">
@@ -1328,18 +1325,18 @@
     </row>
     <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <f>0.99*G62/100</f>
-        <v>8.4494520000000014E-3</v>
+        <f>0.99*G61</f>
+        <v>0.84494520000000006</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" si="4"/>
-        <v>8.4494520000000014E-3</v>
+        <v>0.84494520000000006</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>17</v>
@@ -1347,21 +1344,21 @@
     </row>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="7">
-        <f>0.99*G62</f>
-        <v>0.84494520000000006</v>
+        <f>1.13/10*G61</f>
+        <v>9.644324E-2</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="4"/>
-        <v>0.84494520000000006</v>
+        <v>9.644324E-2</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1372,15 +1369,15 @@
         <v>1</v>
       </c>
       <c r="C32" s="7">
-        <f>1.13/10*G62</f>
-        <v>9.644324E-2</v>
+        <f>0.84*G61/100</f>
+        <v>7.1692320000000002E-3</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" si="4"/>
-        <v>9.644324E-2</v>
+        <v>7.1692320000000002E-3</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1391,12 +1388,12 @@
         <v>1</v>
       </c>
       <c r="C33" s="7">
-        <f>0.84*G62/100</f>
-        <v>7.1692320000000002E-3</v>
+        <f>0.96*G61/100</f>
+        <v>8.1934079999999992E-3</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="4"/>
-        <v>7.1692320000000002E-3</v>
+        <v>8.1934079999999992E-3</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>17</v>
@@ -1404,95 +1401,87 @@
     </row>
     <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B34" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="7">
-        <f>0.96*G62/100</f>
-        <v>8.1934079999999992E-3</v>
-      </c>
-      <c r="D34" s="8">
-        <f t="shared" si="4"/>
-        <v>8.1934079999999992E-3</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="6">
-        <v>2</v>
-      </c>
-      <c r="C35" s="7">
         <f>0.92/50</f>
         <v>1.84E-2</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D34" s="8">
         <f t="shared" si="4"/>
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="E34" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
+      <c r="A37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="7">
+        <f>3.49*G61</f>
+        <v>2.9786452000000003</v>
+      </c>
+      <c r="D37" s="8">
+        <f>B37*C37</f>
+        <v>2.9786452000000003</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="7">
-        <f>3.49*G62</f>
-        <v>2.9786452000000003</v>
+        <f>4.42*G61</f>
+        <v>3.7723816000000001</v>
       </c>
       <c r="D38" s="8">
         <f>B38*C38</f>
-        <v>2.9786452000000003</v>
+        <v>7.5447632000000002</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>42</v>
+      <c r="A39" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="B39" s="6">
-        <v>2</v>
-      </c>
-      <c r="C39" s="7">
-        <f>4.42*G62</f>
-        <v>3.7723816000000001</v>
-      </c>
-      <c r="D39" s="8">
-        <f>B39*C39</f>
-        <v>7.5447632000000002</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
@@ -1506,118 +1495,126 @@
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>32</v>
+      <c r="A41" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B41" s="6">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C41" s="7">
+        <f>1.38/50</f>
+        <v>2.76E-2</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" ref="D41:D42" si="5">B41*C41</f>
+        <v>0.1656</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B42" s="6">
         <v>6</v>
       </c>
       <c r="C42" s="7">
-        <f>1.38/50</f>
-        <v>2.76E-2</v>
-      </c>
-      <c r="D42" s="8">
-        <f t="shared" ref="D42:D43" si="5">B42*C42</f>
-        <v>0.1656</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="6">
-        <v>6</v>
-      </c>
-      <c r="C43" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D42" s="8">
         <f t="shared" si="5"/>
         <v>5.5320000000000008E-2</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="E42" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7">
+        <f>3.34*G61</f>
+        <v>2.8506231999999998</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" ref="D45:D48" si="6">B45*C45</f>
+        <v>2.8506231999999998</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7">
-        <f>3.34*G62</f>
-        <v>2.8506231999999998</v>
-      </c>
-      <c r="D46" s="8">
-        <f t="shared" ref="D46:D49" si="6">B46*C46</f>
-        <v>2.8506231999999998</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
+      <c r="A48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7">
+        <v>12.66</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" si="6"/>
+        <v>12.66</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="7">
-        <v>12.66</v>
+        <f>1.09/50</f>
+        <v>2.18E-2</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="6"/>
-        <v>12.66</v>
+        <f>B49*C49</f>
+        <v>4.36E-2</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>18</v>
@@ -1625,18 +1622,18 @@
     </row>
     <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6">
         <v>2</v>
       </c>
       <c r="C50" s="7">
-        <f>1.09/50</f>
-        <v>2.18E-2</v>
+        <f>1.19/100</f>
+        <v>1.1899999999999999E-2</v>
       </c>
       <c r="D50" s="8">
         <f>B50*C50</f>
-        <v>4.36E-2</v>
+        <v>2.3799999999999998E-2</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>18</v>
@@ -1644,18 +1641,18 @@
     </row>
     <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B51" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="7">
-        <f>1.19/100</f>
-        <v>1.1899999999999999E-2</v>
+        <f>1.38/50</f>
+        <v>2.76E-2</v>
       </c>
       <c r="D51" s="8">
-        <f>B51*C51</f>
-        <v>2.3799999999999998E-2</v>
+        <f t="shared" ref="D51:D53" si="7">B51*C51</f>
+        <v>0.1104</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>18</v>
@@ -1663,18 +1660,18 @@
     </row>
     <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B52" s="6">
         <v>4</v>
       </c>
       <c r="C52" s="7">
-        <f>1.38/50</f>
-        <v>2.76E-2</v>
+        <f>4.61/500</f>
+        <v>9.2200000000000008E-3</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" ref="D52:D54" si="7">B52*C52</f>
-        <v>0.1104</v>
+        <f t="shared" si="7"/>
+        <v>3.6880000000000003E-2</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>18</v>
@@ -1682,143 +1679,124 @@
     </row>
     <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B53" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53" s="7">
-        <f>4.61/500</f>
-        <v>9.2200000000000008E-3</v>
+        <f>0.99/8</f>
+        <v>0.12375</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" si="7"/>
-        <v>3.6880000000000003E-2</v>
+        <v>0.12375</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>58</v>
+      <c r="A54" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="B54" s="6">
         <v>1</v>
       </c>
-      <c r="C54" s="7">
-        <f>0.99/8</f>
-        <v>0.12375</v>
-      </c>
-      <c r="D54" s="8">
-        <f t="shared" si="7"/>
-        <v>0.12375</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="6">
-        <v>1</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
+      <c r="A57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="D57" s="8">
+        <f>B57*C57</f>
+        <v>0.79</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="58" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B58" s="6">
         <v>1</v>
       </c>
       <c r="C58" s="7">
-        <v>0.79</v>
+        <v>6.15</v>
       </c>
       <c r="D58" s="8">
         <f>B58*C58</f>
-        <v>0.79</v>
+        <v>6.15</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" s="6">
-        <v>1</v>
-      </c>
-      <c r="C59" s="7">
-        <v>6.15</v>
-      </c>
-      <c r="D59" s="8">
-        <f>B59*C59</f>
-        <v>6.15</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="23"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="14">
+        <f>SUM(D3:D58)</f>
+        <v>89.750652802909087</v>
+      </c>
+      <c r="G60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="14">
-        <f>SUM(D3:D59)</f>
-        <v>89.750652802909087</v>
-      </c>
-      <c r="G61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="15">
+        <v>27</v>
+      </c>
+      <c r="D61" s="15">
         <f>13/1.1</f>
         <v>11.818181818181817</v>
       </c>
-      <c r="G62">
+      <c r="G61">
         <v>0.85348000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="13" t="s">
+    <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="16">
-        <f>D61+D62</f>
+      <c r="D62" s="16">
+        <f>D60+D61</f>
         <v>101.5688346210909</v>
       </c>
     </row>
@@ -1828,50 +1806,49 @@
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E59" r:id="rId5"/>
-    <hyperlink ref="E49" r:id="rId6"/>
-    <hyperlink ref="E39" r:id="rId7"/>
+    <hyperlink ref="E58" r:id="rId5"/>
+    <hyperlink ref="E48" r:id="rId6"/>
+    <hyperlink ref="E38" r:id="rId7"/>
     <hyperlink ref="E14" r:id="rId8"/>
     <hyperlink ref="E16" r:id="rId9"/>
     <hyperlink ref="E17" r:id="rId10"/>
-    <hyperlink ref="E32" r:id="rId11"/>
-    <hyperlink ref="E31" r:id="rId12"/>
-    <hyperlink ref="E35" r:id="rId13"/>
+    <hyperlink ref="E31" r:id="rId11"/>
+    <hyperlink ref="E30" r:id="rId12"/>
+    <hyperlink ref="E34" r:id="rId13"/>
     <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E46" r:id="rId15" display="Aliexpress"/>
-    <hyperlink ref="E38" r:id="rId16"/>
+    <hyperlink ref="E45" r:id="rId15" display="Aliexpress"/>
+    <hyperlink ref="E37" r:id="rId16"/>
     <hyperlink ref="E7" r:id="rId17"/>
-    <hyperlink ref="E58" r:id="rId18"/>
-    <hyperlink ref="E33" r:id="rId19"/>
-    <hyperlink ref="E34" r:id="rId20"/>
+    <hyperlink ref="E57" r:id="rId18"/>
+    <hyperlink ref="E32" r:id="rId19"/>
+    <hyperlink ref="E33" r:id="rId20"/>
     <hyperlink ref="E26" r:id="rId21"/>
-    <hyperlink ref="E27" r:id="rId22"/>
-    <hyperlink ref="E25" r:id="rId23"/>
-    <hyperlink ref="E24" r:id="rId24"/>
-    <hyperlink ref="E18" r:id="rId25"/>
-    <hyperlink ref="E13" r:id="rId26"/>
+    <hyperlink ref="E25" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E18" r:id="rId24"/>
+    <hyperlink ref="E13" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
     <hyperlink ref="E28" r:id="rId27"/>
     <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E21" r:id="rId30"/>
-    <hyperlink ref="E23" r:id="rId31"/>
+    <hyperlink ref="E21" r:id="rId29"/>
+    <hyperlink ref="E23" r:id="rId30"/>
+    <hyperlink ref="E49" r:id="rId31"/>
     <hyperlink ref="E50" r:id="rId32"/>
-    <hyperlink ref="E51" r:id="rId33"/>
-    <hyperlink ref="E43" r:id="rId34"/>
-    <hyperlink ref="E53" r:id="rId35"/>
-    <hyperlink ref="E12" r:id="rId36"/>
-    <hyperlink ref="E10" r:id="rId37"/>
-    <hyperlink ref="E9" r:id="rId38"/>
-    <hyperlink ref="E42" r:id="rId39"/>
-    <hyperlink ref="E52" r:id="rId40"/>
-    <hyperlink ref="E11" r:id="rId41"/>
-    <hyperlink ref="E22" r:id="rId42"/>
-    <hyperlink ref="E19" r:id="rId43"/>
-    <hyperlink ref="E54" r:id="rId44"/>
-    <hyperlink ref="E20" r:id="rId45"/>
+    <hyperlink ref="E42" r:id="rId33"/>
+    <hyperlink ref="E52" r:id="rId34"/>
+    <hyperlink ref="E12" r:id="rId35"/>
+    <hyperlink ref="E10" r:id="rId36"/>
+    <hyperlink ref="E9" r:id="rId37"/>
+    <hyperlink ref="E41" r:id="rId38"/>
+    <hyperlink ref="E51" r:id="rId39"/>
+    <hyperlink ref="E11" r:id="rId40"/>
+    <hyperlink ref="E22" r:id="rId41"/>
+    <hyperlink ref="E19" r:id="rId42"/>
+    <hyperlink ref="E53" r:id="rId43"/>
+    <hyperlink ref="E20" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId45"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="C11" formula="1"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="435" windowWidth="2100" windowHeight="11700"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="2100" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Unidades</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Arduino nano</t>
   </si>
   <si>
-    <t>Motores con encoders</t>
-  </si>
-  <si>
     <t>Driver de motores</t>
   </si>
   <si>
@@ -217,12 +214,30 @@
   </si>
   <si>
     <t>TME</t>
+  </si>
+  <si>
+    <t>Velcro adhesivo</t>
+  </si>
+  <si>
+    <t>Micro motor con encoder</t>
+  </si>
+  <si>
+    <t>Alibaba</t>
+  </si>
+  <si>
+    <t>50x Conector 2mm 6 pines para el motor</t>
+  </si>
+  <si>
+    <t>Viseras para los sensores impresas en 3D</t>
+  </si>
+  <si>
+    <t>Gastos de envío TME (€)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -330,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,6 +383,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -774,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -812,7 +828,7 @@
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -821,7 +837,7 @@
     </row>
     <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -835,12 +851,12 @@
         <v>4.545454545454545</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -854,7 +870,7 @@
         <v>4.545454545454545</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -865,250 +881,251 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <f>3.35*G61</f>
+        <f>3.35*G64</f>
         <v>2.8591580000000003</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5" si="0">B5*C5</f>
+        <f t="shared" ref="D5:D8" si="0">B5*C5</f>
         <v>2.8591580000000003</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="7">
-        <v>11.7</v>
+        <v>1</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" ref="D6" si="1">B6*C6</f>
-        <v>23.4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7">
-        <f>3.93*B7+7.9</f>
-        <v>11.83</v>
+        <f>13*G64</f>
+        <v>11.09524</v>
       </c>
       <c r="D7" s="8">
-        <f>B7*C7</f>
-        <v>11.83</v>
+        <f t="shared" si="0"/>
+        <v>22.190480000000001</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>29</v>
+      <c r="A8" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="7">
+        <f>3.46*2/50</f>
+        <v>0.1384</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="D9" s="8">
+        <f>B9*C9</f>
+        <v>4.3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C11" s="7">
         <f>1.38/50</f>
         <v>2.76E-2</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D10" si="2">B9*C9</f>
+      <c r="D11" s="8">
+        <f t="shared" ref="D11:D12" si="1">B11*C11</f>
         <v>0.1656</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7">
-        <f>4.61/500</f>
-        <v>9.2200000000000008E-3</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="2"/>
-        <v>5.5320000000000008E-2</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7">
-        <f>1.04/100</f>
-        <v>1.04E-2</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" ref="D11:D12" si="3">B11*C11</f>
-        <v>2.0799999999999999E-2</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="3"/>
-        <v>3.6880000000000003E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.5320000000000008E-2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
-        <f>0.99*G61/10</f>
-        <v>8.4494520000000004E-2</v>
+        <f>1.04/100</f>
+        <v>1.04E-2</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" ref="D13:D34" si="4">B13*C13</f>
-        <v>8.4494520000000004E-2</v>
+        <f t="shared" ref="D13:D14" si="2">B13*C13</f>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B14" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7">
+        <f>4.61/500</f>
+        <v>9.2200000000000008E-3</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="2"/>
+        <v>3.6880000000000003E-2</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <f>0.99*G64/10</f>
+        <v>8.4494520000000004E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" ref="D15:D36" si="3">B15*C15</f>
+        <v>8.4494520000000004E-2</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
         <f>2.52/50</f>
         <v>5.04E-2</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" si="4"/>
+      <c r="D16" s="8">
+        <f t="shared" si="3"/>
         <v>5.04E-2</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.21</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="4"/>
-        <v>1.21</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2.13</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="4"/>
-        <v>2.13</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="7">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="4"/>
-        <v>1.49</v>
+        <f t="shared" si="3"/>
+        <v>1.21</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B18" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" s="7">
-        <f>2.81*G61/10</f>
-        <v>0.23982787999999999</v>
+        <v>2.13</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="4"/>
-        <v>1.43896728</v>
+        <f t="shared" si="3"/>
+        <v>2.13</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>17</v>
@@ -1116,132 +1133,131 @@
     </row>
     <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
       <c r="C19" s="7">
+        <v>1.49</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="3"/>
+        <v>1.49</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7">
+        <f>2.81*G64/10</f>
+        <v>0.23982787999999999</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="3"/>
+        <v>1.43896728</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
         <f>0.95/10</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D19" s="8">
-        <f t="shared" si="4"/>
+      <c r="D21" s="8">
+        <f t="shared" si="3"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="E21" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
         <f>4.48/20</f>
         <v>0.22400000000000003</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="4"/>
+      <c r="D22" s="8">
+        <f t="shared" si="3"/>
         <v>0.22400000000000003</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="E22" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6">
         <v>2</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C23" s="7">
         <f>1.79/10</f>
         <v>0.17899999999999999</v>
       </c>
-      <c r="D21" s="8">
-        <f t="shared" si="4"/>
+      <c r="D23" s="8">
+        <f t="shared" si="3"/>
         <v>0.35799999999999998</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="E23" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
         <f>3.17/10</f>
         <v>0.317</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" si="4"/>
+      <c r="D24" s="8">
+        <f t="shared" si="3"/>
         <v>0.317</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
         <f>2.32/10</f>
         <v>0.23199999999999998</v>
       </c>
-      <c r="D23" s="8">
-        <f t="shared" si="4"/>
+      <c r="D25" s="8">
+        <f t="shared" si="3"/>
         <v>0.23199999999999998</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="6">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7">
-        <f>0.99*G61/100</f>
-        <v>8.4494520000000014E-3</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="4"/>
-        <v>2.5348356000000002E-2</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2</v>
-      </c>
-      <c r="C25" s="7">
-        <f>0.99*G61/100</f>
-        <v>8.4494520000000014E-3</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="4"/>
-        <v>1.6898904000000003E-2</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>17</v>
@@ -1249,151 +1265,151 @@
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B26" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C26" s="7">
-        <f>0.99*G61/100</f>
+        <f>0.99*G64/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="4"/>
-        <v>6.7595616000000011E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.5348356000000002E-2</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="7">
-        <f>0.99*G61/100</f>
+        <f>0.99*G64/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="4"/>
-        <v>8.4494520000000014E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.6898904000000003E-2</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
-        <f>0.99*G61/100</f>
+        <f>0.99*G64/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="4"/>
-        <v>8.4494520000000014E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.4494520000000017E-2</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
       </c>
       <c r="C29" s="7">
-        <f>0.99*G61/100</f>
+        <f>0.99*G64/100</f>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.4494520000000014E-3</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <f>0.99*G61</f>
-        <v>0.84494520000000006</v>
+        <f>0.99*G64/100</f>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="4"/>
-        <v>0.84494520000000006</v>
+        <f t="shared" si="3"/>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="7">
-        <f>1.13/10*G61</f>
-        <v>9.644324E-2</v>
+        <f>0.99*G64/100</f>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="4"/>
-        <v>9.644324E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.4494520000000014E-3</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
       </c>
       <c r="C32" s="7">
-        <f>0.84*G61/100</f>
-        <v>7.1692320000000002E-3</v>
+        <f>0.99*G64</f>
+        <v>0.84494520000000006</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="4"/>
-        <v>7.1692320000000002E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.84494520000000006</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
       </c>
       <c r="C33" s="7">
-        <f>0.96*G61/100</f>
-        <v>8.1934079999999992E-3</v>
+        <f>1.13/10*G64</f>
+        <v>9.644324E-2</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" si="4"/>
-        <v>8.1934079999999992E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.644324E-2</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>17</v>
@@ -1401,167 +1417,181 @@
     </row>
     <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7">
+        <f>0.84*G64/100</f>
+        <v>7.1692320000000002E-3</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="3"/>
+        <v>7.1692320000000002E-3</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <f>0.96*G64/100</f>
+        <v>8.1934079999999992E-3</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="3"/>
+        <v>8.1934079999999992E-3</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="6">
         <v>2</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C36" s="7">
         <f>0.92/50</f>
         <v>1.84E-2</v>
       </c>
-      <c r="D34" s="8">
-        <f t="shared" si="4"/>
+      <c r="D36" s="8">
+        <f t="shared" si="3"/>
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <f>3.49*G64</f>
+        <v>2.9786452000000003</v>
+      </c>
+      <c r="D39" s="8">
+        <f>B39*C39</f>
+        <v>2.9786452000000003</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7">
-        <f>3.49*G61</f>
-        <v>2.9786452000000003</v>
-      </c>
-      <c r="D37" s="8">
-        <f>B37*C37</f>
-        <v>2.9786452000000003</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="6">
+      <c r="B40" s="6">
         <v>2</v>
       </c>
-      <c r="C38" s="7">
-        <f>4.42*G61</f>
+      <c r="C40" s="7">
+        <f>4.42*G64</f>
         <v>3.7723816000000001</v>
       </c>
-      <c r="D38" s="8">
-        <f>B38*C38</f>
+      <c r="D40" s="8">
+        <f>B40*C40</f>
         <v>7.5447632000000002</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="E40" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="6">
+        <v>3</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="6">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="6">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="6">
-        <v>6</v>
-      </c>
-      <c r="C41" s="7">
-        <f>1.38/50</f>
-        <v>2.76E-2</v>
-      </c>
-      <c r="D41" s="8">
-        <f t="shared" ref="D41:D42" si="5">B41*C41</f>
-        <v>0.1656</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="6">
-        <v>6</v>
-      </c>
-      <c r="C42" s="7">
-        <f>4.61/500</f>
-        <v>9.2200000000000008E-3</v>
-      </c>
-      <c r="D42" s="8">
-        <f t="shared" si="5"/>
-        <v>5.5320000000000008E-2</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
+      <c r="A44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="6">
+        <v>6</v>
+      </c>
+      <c r="C44" s="7">
+        <f>1.38/50</f>
+        <v>2.76E-2</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" ref="D44:D45" si="4">B44*C44</f>
+        <v>0.1656</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B45" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C45" s="7">
-        <f>3.34*G61</f>
-        <v>2.8506231999999998</v>
+        <f>4.61/500</f>
+        <v>9.2200000000000008E-3</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" ref="D45:D48" si="6">B45*C45</f>
-        <v>2.8506231999999998</v>
+        <f t="shared" si="4"/>
+        <v>5.5320000000000008E-2</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>17</v>
@@ -1576,7 +1606,7 @@
     </row>
     <row r="47" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -1585,273 +1615,318 @@
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" s="6">
         <v>1</v>
       </c>
       <c r="C48" s="7">
+        <f>3.34*G64</f>
+        <v>2.8506231999999998</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" ref="D48:D51" si="5">B48*C48</f>
+        <v>2.8506231999999998</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7">
         <v>12.66</v>
       </c>
-      <c r="D48" s="8">
-        <f t="shared" si="6"/>
+      <c r="D51" s="8">
+        <f t="shared" si="5"/>
         <v>12.66</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="6">
+      <c r="E51" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6">
         <v>2</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C52" s="7">
         <f>1.09/50</f>
         <v>2.18E-2</v>
       </c>
-      <c r="D49" s="8">
-        <f>B49*C49</f>
+      <c r="D52" s="8">
+        <f>B52*C52</f>
         <v>4.36E-2</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6">
+      <c r="E52" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="6">
         <v>2</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C53" s="7">
         <f>1.19/100</f>
         <v>1.1899999999999999E-2</v>
       </c>
-      <c r="D50" s="8">
-        <f>B50*C50</f>
+      <c r="D53" s="8">
+        <f>B53*C53</f>
         <v>2.3799999999999998E-2</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="6">
+      <c r="E53" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="6">
         <v>4</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C54" s="7">
         <f>1.38/50</f>
         <v>2.76E-2</v>
       </c>
-      <c r="D51" s="8">
-        <f t="shared" ref="D51:D53" si="7">B51*C51</f>
+      <c r="D54" s="8">
+        <f t="shared" ref="D54:D56" si="6">B54*C54</f>
         <v>0.1104</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="6">
+      <c r="E54" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="6">
         <v>4</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C55" s="7">
         <f>4.61/500</f>
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="D52" s="8">
-        <f t="shared" si="7"/>
+      <c r="D55" s="8">
+        <f t="shared" si="6"/>
         <v>3.6880000000000003E-2</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="6">
-        <v>1</v>
-      </c>
-      <c r="C53" s="7">
+      <c r="E55" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="6">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7">
         <f>0.99/8</f>
         <v>0.12375</v>
       </c>
-      <c r="D53" s="8">
-        <f t="shared" si="7"/>
+      <c r="D56" s="8">
+        <f t="shared" si="6"/>
         <v>0.12375</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="6">
-        <v>1</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>20</v>
+      <c r="A57" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1</v>
+      </c>
+      <c r="C60" s="7">
         <v>0.79</v>
       </c>
-      <c r="D57" s="8">
-        <f>B57*C57</f>
+      <c r="D60" s="8">
+        <f>B60*C60</f>
         <v>0.79</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="6">
-        <v>1</v>
-      </c>
-      <c r="C58" s="7">
+      <c r="E60" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="6">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7">
         <v>6.15</v>
       </c>
-      <c r="D58" s="8">
-        <f>B58*C58</f>
+      <c r="D61" s="8">
+        <f>B61*C61</f>
         <v>6.15</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="23"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="10"/>
-      <c r="C60" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="14">
-        <f>SUM(D3:D58)</f>
-        <v>89.750652802909087</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="15">
+      <c r="E61" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="10"/>
+      <c r="C63" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="14">
+        <f>SUM(D3:D61)</f>
+        <v>82.304831706909098</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="15">
         <f>13/1.1</f>
         <v>11.818181818181817</v>
       </c>
-      <c r="G61">
+      <c r="G64">
         <v>0.85348000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="13" t="s">
+    <row r="65" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="25">
+        <f>7.9*1.21</f>
+        <v>9.5589999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="16">
-        <f>D60+D61</f>
-        <v>101.5688346210909</v>
+      <c r="D66" s="16">
+        <f>D63+D64+D65</f>
+        <v>103.68201352509091</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E58" r:id="rId5"/>
-    <hyperlink ref="E48" r:id="rId6"/>
-    <hyperlink ref="E38" r:id="rId7"/>
-    <hyperlink ref="E14" r:id="rId8"/>
-    <hyperlink ref="E16" r:id="rId9"/>
-    <hyperlink ref="E17" r:id="rId10"/>
-    <hyperlink ref="E31" r:id="rId11"/>
-    <hyperlink ref="E30" r:id="rId12"/>
-    <hyperlink ref="E34" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E45" r:id="rId15" display="Aliexpress"/>
-    <hyperlink ref="E37" r:id="rId16"/>
-    <hyperlink ref="E7" r:id="rId17"/>
-    <hyperlink ref="E57" r:id="rId18"/>
-    <hyperlink ref="E32" r:id="rId19"/>
-    <hyperlink ref="E33" r:id="rId20"/>
-    <hyperlink ref="E26" r:id="rId21"/>
-    <hyperlink ref="E25" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E18" r:id="rId24"/>
-    <hyperlink ref="E13" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E21" r:id="rId29"/>
-    <hyperlink ref="E23" r:id="rId30"/>
-    <hyperlink ref="E49" r:id="rId31"/>
-    <hyperlink ref="E50" r:id="rId32"/>
-    <hyperlink ref="E42" r:id="rId33"/>
-    <hyperlink ref="E52" r:id="rId34"/>
-    <hyperlink ref="E12" r:id="rId35"/>
-    <hyperlink ref="E10" r:id="rId36"/>
-    <hyperlink ref="E9" r:id="rId37"/>
-    <hyperlink ref="E41" r:id="rId38"/>
-    <hyperlink ref="E51" r:id="rId39"/>
-    <hyperlink ref="E11" r:id="rId40"/>
-    <hyperlink ref="E22" r:id="rId41"/>
-    <hyperlink ref="E19" r:id="rId42"/>
-    <hyperlink ref="E53" r:id="rId43"/>
-    <hyperlink ref="E20" r:id="rId44"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E61" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E51" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E40" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E33" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E36" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E48" r:id="rId14" display="Aliexpress" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E39" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E60" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E34" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E25" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E53" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E55" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E14" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E12" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E54" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E13" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E56" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E7" r:id="rId43" xr:uid="{81F26BD8-CF16-43C1-80AF-57ACE3B21E7A}"/>
+    <hyperlink ref="E9" r:id="rId44" xr:uid="{EFC2FD53-2549-4DA1-AF24-7F1839FCAB7A}"/>
+    <hyperlink ref="E8" r:id="rId45" xr:uid="{BC0419F4-E80A-4DFA-AD86-C597005107E7}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId45"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId46"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C11" formula="1"/>
+    <ignoredError sqref="C13" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>